--- a/diet_groups_female.xlsx
+++ b/diet_groups_female.xlsx
@@ -1,37 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suraj\PycharmProjects\ResearchMethodsCW2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82CFDA-9C1C-48F0-9ADB-D2825817D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="female" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="female" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Impact Type</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>meat50</t>
+  </si>
+  <si>
+    <t>meat100</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>veggie</t>
+  </si>
+  <si>
+    <t>GreenHouseGas</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>LandUsed</t>
+  </si>
+  <si>
+    <t>WaterScarcity</t>
+  </si>
+  <si>
+    <t>Eutrophication</t>
+  </si>
+  <si>
+    <t>WaterUse</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +100,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,254 +424,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Impact Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>meat50</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>meat100</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>meat</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>vegan</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>veggie</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GreenHouseGas</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.96859292078949</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.653609585855314</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4.9685929207894901</v>
+      </c>
+      <c r="C2">
+        <v>5.6536095858553139</v>
+      </c>
+      <c r="D2">
         <v>11.15677829226369</v>
       </c>
-      <c r="E2" t="n">
-        <v>7.378603678514138</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.595871508281331</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.398438375707667</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CH4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.848570056546499</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.070489620567668</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.378900546063324</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.476107159782338</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1575353859828329</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7749927566246668</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>N2O</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.327401393491833</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3863482737436664</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8079959314764991</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.522213029816499</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2175056217363332</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2958302213859996</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LandUsed</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6.642188966440165</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8.426892435317354</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.53891341469584</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="E2">
+        <v>7.3786036785141382</v>
+      </c>
+      <c r="F2">
+        <v>2.5958715082813311</v>
+      </c>
+      <c r="G2">
+        <v>4.3984383757076673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>252.5986771304573</v>
+      </c>
+      <c r="C3">
+        <v>266.12155303351682</v>
+      </c>
+      <c r="D3">
+        <v>412.86379154383491</v>
+      </c>
+      <c r="E3">
+        <v>312.80463799003388</v>
+      </c>
+      <c r="F3">
+        <v>124.9518975993069</v>
+      </c>
+      <c r="G3">
+        <v>249.3898609598547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>6.6421889664401652</v>
+      </c>
+      <c r="C4">
+        <v>8.4268924353173542</v>
+      </c>
+      <c r="D4">
+        <v>23.538913414695841</v>
+      </c>
+      <c r="E4">
         <v>12.76017561139567</v>
       </c>
-      <c r="F5" t="n">
-        <v>4.460946533460834</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.368289152929359</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>WaterScarcity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>18142.1832974023</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17646.27308263724</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="F4">
+        <v>4.4609465334608336</v>
+      </c>
+      <c r="G4">
+        <v>6.3682891529293588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>18142.183297402298</v>
+      </c>
+      <c r="C5">
+        <v>17646.273082637239</v>
+      </c>
+      <c r="D5">
         <v>22131.26497903663</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E5">
         <v>19107.08894524497</v>
       </c>
-      <c r="F6" t="n">
-        <v>15031.05105101465</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16126.60306143168</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Eutrophication</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>21.03969987531666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>23.52050835947665</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.49794521457668</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="F5">
+        <v>15031.051051014651</v>
+      </c>
+      <c r="G5">
+        <v>16126.603061431681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>21.039699875316661</v>
+      </c>
+      <c r="C6">
+        <v>23.520508359476651</v>
+      </c>
+      <c r="D6">
+        <v>40.497945214576681</v>
+      </c>
+      <c r="E6">
         <v>29.51426252698322</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F6">
         <v>11.34224772763139</v>
       </c>
-      <c r="G7" t="n">
-        <v>17.36548589325663</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>WaterUse</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>779.1388017055634</v>
-      </c>
-      <c r="C8" t="n">
-        <v>777.3641601715817</v>
-      </c>
-      <c r="D8" t="n">
-        <v>963.6907215117826</v>
-      </c>
-      <c r="E8" t="n">
-        <v>860.5645077144684</v>
-      </c>
-      <c r="F8" t="n">
-        <v>443.1903391503506</v>
-      </c>
-      <c r="G8" t="n">
-        <v>553.7870941485518</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Acid</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23.56631154353155</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.64895979312169</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45.56661547087489</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33.36521387551337</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="G6">
+        <v>17.365485893256629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>779.13880170556342</v>
+      </c>
+      <c r="C7">
+        <v>777.36416017158172</v>
+      </c>
+      <c r="D7">
+        <v>963.69072151178261</v>
+      </c>
+      <c r="E7">
+        <v>860.56450771446839</v>
+      </c>
+      <c r="F7">
+        <v>443.19033915035061</v>
+      </c>
+      <c r="G7">
+        <v>553.78709414855177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>23.566311543531551</v>
+      </c>
+      <c r="C8">
+        <v>26.648959793121691</v>
+      </c>
+      <c r="D8">
+        <v>45.566615470874893</v>
+      </c>
+      <c r="E8">
+        <v>33.365213875513369</v>
+      </c>
+      <c r="F8">
         <v>11.51884759880654</v>
       </c>
-      <c r="G9" t="n">
-        <v>21.24455445195668</v>
+      <c r="G8">
+        <v>21.244554451956681</v>
       </c>
     </row>
   </sheetData>
